--- a/Excel-XLSX/UN-TUR.xlsx
+++ b/Excel-XLSX/UN-TUR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="1501">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2twHNC</t>
+    <t>lRpI9u</t>
   </si>
   <si>
     <t>1951</t>
@@ -4470,19 +4470,28 @@
     <t>2024</t>
   </si>
   <si>
-    <t>91373</t>
+    <t>14145</t>
+  </si>
+  <si>
+    <t>69484</t>
   </si>
   <si>
     <t>980</t>
   </si>
   <si>
-    <t>9280</t>
+    <t>6072</t>
+  </si>
+  <si>
+    <t>7242</t>
   </si>
   <si>
     <t>981</t>
   </si>
   <si>
-    <t>89397</t>
+    <t>14070</t>
+  </si>
+  <si>
+    <t>73527</t>
   </si>
   <si>
     <t>982</t>
@@ -4491,22 +4500,25 @@
     <t>983</t>
   </si>
   <si>
-    <t>3112683</t>
-  </si>
-  <si>
-    <t>9016</t>
+    <t>2901478</t>
+  </si>
+  <si>
+    <t>159439</t>
   </si>
   <si>
     <t>984</t>
   </si>
   <si>
-    <t>4524</t>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>3830</t>
   </si>
   <si>
     <t>985</t>
   </si>
   <si>
-    <t>2865</t>
+    <t>2616</t>
   </si>
 </sst>
 </file>
@@ -71512,10 +71524,10 @@
         <v>31</v>
       </c>
       <c r="N980" s="2" t="s">
-        <v>1465</v>
+        <v>1484</v>
       </c>
       <c r="O980" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="P980" s="2" t="s">
         <v>33</v>
@@ -71550,7 +71562,7 @@
         <v>22</v>
       </c>
       <c r="D981" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E981" s="2" t="s">
         <v>1483</v>
@@ -71580,10 +71592,10 @@
         <v>31</v>
       </c>
       <c r="N981" s="2" t="s">
-        <v>1468</v>
+        <v>1487</v>
       </c>
       <c r="O981" s="2" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="P981" s="2" t="s">
         <v>33</v>
@@ -71618,7 +71630,7 @@
         <v>22</v>
       </c>
       <c r="D982" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="E982" s="2" t="s">
         <v>1483</v>
@@ -71648,10 +71660,10 @@
         <v>31</v>
       </c>
       <c r="N982" s="2" t="s">
-        <v>1471</v>
+        <v>1490</v>
       </c>
       <c r="O982" s="2" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="P982" s="2" t="s">
         <v>33</v>
@@ -71686,7 +71698,7 @@
         <v>22</v>
       </c>
       <c r="D983" s="2" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="E983" s="2" t="s">
         <v>1483</v>
@@ -71731,7 +71743,7 @@
         <v>33</v>
       </c>
       <c r="S983" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="T983" s="2" t="s">
         <v>33</v>
@@ -71754,7 +71766,7 @@
         <v>22</v>
       </c>
       <c r="D984" s="2" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="E984" s="2" t="s">
         <v>1483</v>
@@ -71784,13 +71796,13 @@
         <v>31</v>
       </c>
       <c r="N984" s="2" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="O984" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P984" s="2" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="Q984" s="2" t="s">
         <v>33</v>
@@ -71822,7 +71834,7 @@
         <v>22</v>
       </c>
       <c r="D985" s="2" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="E985" s="2" t="s">
         <v>1483</v>
@@ -71852,10 +71864,10 @@
         <v>31</v>
       </c>
       <c r="N985" s="2" t="s">
-        <v>1478</v>
+        <v>1497</v>
       </c>
       <c r="O985" s="2" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="P985" s="2" t="s">
         <v>33</v>
@@ -71890,7 +71902,7 @@
         <v>22</v>
       </c>
       <c r="D986" s="2" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="E986" s="2" t="s">
         <v>1483</v>
@@ -71920,10 +71932,10 @@
         <v>31</v>
       </c>
       <c r="N986" s="2" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="O986" s="2" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="P986" s="2" t="s">
         <v>33</v>
